--- a/meta/1-3-1-1e.xlsx
+++ b/meta/1-3-1-1e.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Working\ЦЕЛИ УСТОЙЧИВОГО РАЗВИТИЯ\ПОРУЧЕНИЕ\Метаданные для заполнения на 31 декабря 2019\Метаданные для национальных показателей\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\open-sdg-data-starter-develop\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AF4010-66FF-4BE6-BAFB-EF95EBCFCEC7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="8490"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="НАЦИОН." sheetId="1" r:id="rId1"/>
@@ -183,7 +184,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -280,7 +281,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -557,32 +558,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="48.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.26953125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="48.7890625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.26171875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" ht="87.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="87.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -590,7 +591,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -598,13 +599,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -612,7 +613,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -620,7 +621,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -628,7 +629,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -636,7 +637,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -644,13 +645,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2" ht="334.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="334.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -658,7 +659,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -666,7 +667,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="279.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="279.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
@@ -674,13 +675,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2" ht="111" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="111" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -688,43 +689,43 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="156.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="156.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="82.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="s">
         <v>10</v>
       </c>
@@ -732,7 +733,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
@@ -740,52 +741,48 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B10" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
